--- a/xlsx/插电式混合动力汽车_intext.xlsx
+++ b/xlsx/插电式混合动力汽车_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD%E4%BC%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>雪佛蘭伏特</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_插电式混合动力汽车</t>
+    <t>雪佛兰伏特</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_插电式混合动力汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8B</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%BA%90%E7%86%B1%E6%B3%B5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地源熱泵系統</t>
+    <t>地源热泵系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Passive_solar_building_design</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>厭氧消化</t>
+    <t>厌氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%96%99</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>潮汐發電</t>
+    <t>潮汐发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%B5%AA%E8%83%BD</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E5%8B%95%E5%8A%9B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫動力汽車</t>
+    <t>氢动力汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>Template talk-可持續能源</t>
+    <t>Template talk-可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%85%E9%9B%BB%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>充電電池</t>
+    <t>充电电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E7%94%B5%E6%9C%BA</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%AD%90%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>轉子引擎</t>
+    <t>转子引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪引擎</t>
+    <t>涡轮引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA%C2%B7Qin</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%99%AE%E9%8A%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>豐田普銳斯</t>
+    <t>丰田普锐斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1Outlander_PHEV</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>三菱汽車</t>
+    <t>三菱汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW</t>
